--- a/plantillaHPV/usuariosSistema.xlsx
+++ b/plantillaHPV/usuariosSistema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Hpv\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,10 +101,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,20 +126,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>104288</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -158,8 +158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="523875" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -515,7 +515,7 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -532,8 +532,10 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -550,8 +552,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -568,8 +572,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -586,8 +592,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -604,8 +612,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -622,28 +632,32 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -660,8 +674,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -677,8 +694,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,7 +717,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G11" s="5"/>
     </row>
   </sheetData>

--- a/plantillaHPV/usuariosSistema.xlsx
+++ b/plantillaHPV/usuariosSistema.xlsx
@@ -126,20 +126,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -158,7 +158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="0"/>
+          <a:off x="971550" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
